--- a/Id3BinaryClassification/learningCurve.xlsx
+++ b/Id3BinaryClassification/learningCurve.xlsx
@@ -121,22 +121,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -296,7 +296,7 @@
                   <c:v>0.89710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89</c:v>
+                  <c:v>0.88500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.88400000000000001</c:v>
@@ -390,7 +390,7 @@
                   <c:v>0.68472999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71919999999999995</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.74380000000000002</c:v>
@@ -408,7 +408,7 @@
                   <c:v>0.83250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84730000000000005</c:v>
+                  <c:v>0.8276</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.84730000000000005</c:v>
@@ -435,11 +435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215811968"/>
-        <c:axId val="215813504"/>
+        <c:axId val="231074048"/>
+        <c:axId val="231735680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215811968"/>
+        <c:axId val="231074048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,12 +480,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215813504"/>
+        <c:crossAx val="231735680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215813504"/>
+        <c:axId val="231735680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -517,7 +517,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215811968"/>
+        <c:crossAx val="231074048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:L38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,15 +877,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -951,43 +951,43 @@
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.92</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.94</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.94</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>0.91332999999999998</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>0.89</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>0.88800000000000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>0.89</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>0.89710000000000001</v>
       </c>
-      <c r="K6" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="K6" s="5">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="L6" s="5">
         <v>0.88400000000000001</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>0.86829999999999996</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="5">
         <v>0.85709999999999997</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="5">
         <v>0.875</v>
       </c>
     </row>
@@ -995,106 +995,106 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>0.58130000000000004</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.68472999999999995</v>
       </c>
-      <c r="E7" s="6">
-        <v>0.71919999999999995</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="4">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.74380000000000002</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>0.81279999999999997</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>0.79310000000000003</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>0.82266000000000006</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>0.83250000000000002</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
+        <v>0.8276</v>
+      </c>
+      <c r="L7" s="5">
         <v>0.84730000000000005</v>
       </c>
-      <c r="L7" s="7">
-        <v>0.84730000000000005</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="M7" s="5">
         <v>0.88180000000000003</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="5">
         <v>0.81279999999999997</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="5">
         <v>0.81279999999999997</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
     </row>
     <row r="36" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
